--- a/Results/TypesOfMixtures.xlsx
+++ b/Results/TypesOfMixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrancescaMiddleton\Documents\Meesters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4BCCA0-0C2B-4D26-8203-DE99E8DE08BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F9AD6-E710-47A9-8254-BD97D02F36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B3BDECF5-5942-4BBB-AF93-70FDFB2D2954}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="12">
   <si>
     <t>Temp</t>
   </si>
@@ -76,24 +76,6 @@
   <si>
     <t>mix</t>
   </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Sinusoidal</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Large positive</t>
-  </si>
-  <si>
-    <t>Moderate positive</t>
-  </si>
-  <si>
-    <t>Small positive</t>
-  </si>
 </sst>
 </file>
 
@@ -102,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,12 +98,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,6 +137,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -171,13 +160,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -192,18 +179,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5358,10 +5347,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189223E8-444C-42AF-9DC5-10AFD404B38D}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5687,317 +5676,296 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>17</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7">
+        <v>95</v>
+      </c>
+      <c r="E19" s="7">
+        <v>621</v>
+      </c>
+      <c r="F19" s="7">
+        <v>576</v>
+      </c>
+      <c r="G19" s="7">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7">
-        <v>95</v>
-      </c>
-      <c r="E20" s="7">
-        <v>621</v>
-      </c>
-      <c r="F20" s="7">
-        <v>576</v>
-      </c>
-      <c r="G20" s="7">
-        <v>164</v>
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>449.03712625115105</v>
+      </c>
+      <c r="D20" s="3">
+        <v>461.48031142593635</v>
+      </c>
+      <c r="E20" s="3">
+        <v>271.78841987327786</v>
+      </c>
+      <c r="F20" s="3">
+        <v>213.09716840879281</v>
+      </c>
+      <c r="G20" s="3">
+        <v>198.04510560660694</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>505.37033555288139</v>
+      </c>
+      <c r="D21" s="3">
+        <v>721.69777306315791</v>
+      </c>
+      <c r="E21" s="3">
+        <v>403.49965834138487</v>
+      </c>
+      <c r="F21" s="3">
+        <v>233.28957585746528</v>
+      </c>
+      <c r="G21" s="3">
+        <v>283.06289197743911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>499.41514423898309</v>
+      </c>
+      <c r="D22" s="3">
+        <v>697.76427514210536</v>
+      </c>
+      <c r="E22" s="3">
+        <v>331.31779222077296</v>
+      </c>
+      <c r="F22" s="3">
+        <v>216.13838128437501</v>
+      </c>
+      <c r="G22" s="3">
+        <v>249.84986306524385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="3">
-        <v>449.03712625115105</v>
-      </c>
-      <c r="D21" s="3">
-        <v>461.48031142593635</v>
-      </c>
-      <c r="E21" s="3">
-        <v>271.78841987327786</v>
-      </c>
-      <c r="F21" s="3">
-        <v>213.09716840879281</v>
-      </c>
-      <c r="G21" s="3">
-        <v>198.04510560660694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="3">
+        <v>342.27125867453151</v>
+      </c>
+      <c r="D23" s="3">
+        <v>326.95028596904723</v>
+      </c>
+      <c r="E23" s="3">
+        <v>183.02409957361411</v>
+      </c>
+      <c r="F23" s="3">
+        <v>149.82663462456352</v>
+      </c>
+      <c r="G23" s="3">
+        <v>149.21242809672808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
-        <v>505.37033555288139</v>
-      </c>
-      <c r="D22" s="3">
-        <v>721.69777306315791</v>
-      </c>
-      <c r="E22" s="3">
-        <v>403.49965834138487</v>
-      </c>
-      <c r="F22" s="3">
-        <v>233.28957585746528</v>
-      </c>
-      <c r="G22" s="3">
-        <v>283.06289197743911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="3">
+        <v>377.602031100678</v>
+      </c>
+      <c r="D24" s="3">
+        <v>544.22597762947373</v>
+      </c>
+      <c r="E24" s="3">
+        <v>296.57385577697266</v>
+      </c>
+      <c r="F24" s="3">
+        <v>172.09461014875001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>145.44373095731706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3">
-        <v>499.41514423898309</v>
-      </c>
-      <c r="D23" s="3">
-        <v>697.76427514210536</v>
-      </c>
-      <c r="E23" s="3">
-        <v>331.31779222077296</v>
-      </c>
-      <c r="F23" s="3">
-        <v>216.13838128437501</v>
-      </c>
-      <c r="G23" s="3">
-        <v>249.84986306524385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="3">
+        <v>371.74384981186444</v>
+      </c>
+      <c r="D25" s="3">
+        <v>386.09451768947366</v>
+      </c>
+      <c r="E25" s="3">
+        <v>210.93221912325282</v>
+      </c>
+      <c r="F25" s="3">
+        <v>142.92854502124999</v>
+      </c>
+      <c r="G25" s="3">
+        <v>175.40580216463417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3">
-        <v>342.27125867453151</v>
-      </c>
-      <c r="D24" s="3">
-        <v>326.95028596904723</v>
-      </c>
-      <c r="E24" s="3">
-        <v>183.02409957361411</v>
-      </c>
-      <c r="F24" s="3">
-        <v>149.82663462456352</v>
-      </c>
-      <c r="G24" s="3">
-        <v>149.21242809672808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="3">
+        <v>1977.717119265769</v>
+      </c>
+      <c r="D26" s="3">
+        <v>188.59377234154604</v>
+      </c>
+      <c r="E26" s="3">
+        <v>18.675002387592585</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44.304345664961978</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1223.3417234025317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="3">
-        <v>377.602031100678</v>
-      </c>
-      <c r="D25" s="3">
-        <v>544.22597762947373</v>
-      </c>
-      <c r="E25" s="3">
-        <v>296.57385577697266</v>
-      </c>
-      <c r="F25" s="3">
-        <v>172.09461014875001</v>
-      </c>
-      <c r="G25" s="3">
-        <v>145.44373095731706</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="3">
+        <v>1912.9334721898306</v>
+      </c>
+      <c r="D27" s="3">
+        <v>156.55873008200001</v>
+      </c>
+      <c r="E27" s="3">
+        <v>24.467003870619969</v>
+      </c>
+      <c r="F27" s="3">
+        <v>41.729150744253474</v>
+      </c>
+      <c r="G27" s="3">
+        <v>656.41587501524373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3">
-        <v>371.74384981186444</v>
-      </c>
-      <c r="D26" s="3">
-        <v>386.09451768947366</v>
-      </c>
-      <c r="E26" s="3">
-        <v>210.93221912325282</v>
-      </c>
-      <c r="F26" s="3">
-        <v>142.92854502124999</v>
-      </c>
-      <c r="G26" s="3">
-        <v>175.40580216463417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C28" s="3">
+        <v>3319.4979140711866</v>
+      </c>
+      <c r="D28" s="3">
+        <v>174.91424664347366</v>
+      </c>
+      <c r="E28" s="3">
+        <v>19.243577812818035</v>
+      </c>
+      <c r="F28" s="3">
+        <v>39.402424507152773</v>
+      </c>
+      <c r="G28" s="3">
+        <v>645.39145278841454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="3">
-        <v>1977.717119265769</v>
-      </c>
-      <c r="D27" s="3">
-        <v>188.59377234154604</v>
-      </c>
-      <c r="E27" s="3">
-        <v>18.675002387592585</v>
-      </c>
-      <c r="F27" s="3">
-        <v>44.304345664961978</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1223.3417234025317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2" t="s">
+      <c r="C29" s="3">
+        <v>1582.8275872243071</v>
+      </c>
+      <c r="D29" s="3">
+        <v>234.75589927172018</v>
+      </c>
+      <c r="E29" s="3">
+        <v>23.012461557872669</v>
+      </c>
+      <c r="F29" s="3">
+        <v>49.165936645019727</v>
+      </c>
+      <c r="G29" s="3">
+        <v>779.52882691483785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="3">
-        <v>1912.9334721898306</v>
-      </c>
-      <c r="D28" s="3">
-        <v>156.55873008200001</v>
-      </c>
-      <c r="E28" s="3">
-        <v>24.467003870619969</v>
-      </c>
-      <c r="F28" s="3">
-        <v>41.729150744253474</v>
-      </c>
-      <c r="G28" s="3">
-        <v>656.41587501524373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="3">
+        <v>1763.1618566033899</v>
+      </c>
+      <c r="D30" s="3">
+        <v>177.167122546</v>
+      </c>
+      <c r="E30" s="3">
+        <v>29.257504881368757</v>
+      </c>
+      <c r="F30" s="3">
+        <v>46.387354593315969</v>
+      </c>
+      <c r="G30" s="3">
+        <v>696.44655913902443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="13"/>
+      <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3">
-        <v>3319.4979140711866</v>
-      </c>
-      <c r="D29" s="3">
-        <v>174.91424664347366</v>
-      </c>
-      <c r="E29" s="3">
-        <v>19.243577812818035</v>
-      </c>
-      <c r="F29" s="3">
-        <v>39.402424507152773</v>
-      </c>
-      <c r="G29" s="3">
-        <v>645.39145278841454</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1582.8275872243071</v>
-      </c>
-      <c r="D30" s="3">
-        <v>234.75589927172018</v>
-      </c>
-      <c r="E30" s="3">
-        <v>23.012461557872669</v>
-      </c>
-      <c r="F30" s="3">
-        <v>49.165936645019727</v>
-      </c>
-      <c r="G30" s="3">
-        <v>779.52882691483785</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C31" s="3">
-        <v>1763.1618566033899</v>
+        <v>2613.8802711389835</v>
       </c>
       <c r="D31" s="3">
-        <v>177.167122546</v>
+        <v>212.13289028494742</v>
       </c>
       <c r="E31" s="3">
-        <v>29.257504881368757</v>
+        <v>23.180590883075684</v>
       </c>
       <c r="F31" s="3">
-        <v>46.387354593315969</v>
+        <v>45.628077711597221</v>
       </c>
       <c r="G31" s="3">
-        <v>696.44655913902443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2613.8802711389835</v>
-      </c>
-      <c r="D32" s="3">
-        <v>212.13289028494742</v>
-      </c>
-      <c r="E32" s="3">
-        <v>23.180590883075684</v>
-      </c>
-      <c r="F32" s="3">
-        <v>45.628077711597221</v>
-      </c>
-      <c r="G32" s="3">
         <v>733.51245883902436</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:G4 C3">
     <cfRule type="colorScale" priority="16">
@@ -6119,8 +6087,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C23:G23 C20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:G26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:G29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C24:G24 C21">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6130,7 +6128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:G27">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6140,7 +6138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:G30">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6150,7 +6148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:G25 C22">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6160,7 +6158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G28">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6170,36 +6168,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:G31">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G26 C23">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:G29">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:G32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6209,8 +6177,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D20:G20">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D21:G21">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6220,16 +6198,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:G22">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:G23">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6239,7 +6207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:G20">
+  <conditionalFormatting sqref="C19:G19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/TypesOfMixtures.xlsx
+++ b/Results/TypesOfMixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrancescaMiddleton\Documents\Meesters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F9AD6-E710-47A9-8254-BD97D02F36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1258915F-77C1-4540-81E3-327FB7B0F9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B3BDECF5-5942-4BBB-AF93-70FDFB2D2954}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B3BDECF5-5942-4BBB-AF93-70FDFB2D2954}"/>
   </bookViews>
   <sheets>
     <sheet name="uni" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -180,11 +180,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -192,6 +187,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE1FEB8-9A2D-4FCA-B9F6-2D9107137BAA}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,12 +683,12 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -747,23 +745,18 @@
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <f>D10/SUM(D10:H10)*100</f>
         <v>3.4207525655644244</v>
       </c>
       <c r="E11" s="5">
-        <f>E10/SUM(D10:H10)*100</f>
         <v>7.1835803876852911</v>
       </c>
       <c r="F11" s="5">
-        <f>F10/SUM(D10:H10)*100</f>
         <v>40.706955530216646</v>
       </c>
       <c r="G11" s="5">
-        <f>G10/SUM(D10:H10)*100</f>
         <v>38.31242873432155</v>
       </c>
       <c r="H11" s="5">
-        <f>H10/SUM(D10:H10)*100</f>
         <v>10.376282782212087</v>
       </c>
     </row>
@@ -774,19 +767,19 @@
         <v>3</v>
       </c>
       <c r="D12" s="5">
-        <v>342.98540522373497</v>
+        <v>343</v>
       </c>
       <c r="E12" s="5">
-        <v>477.42009209477499</v>
+        <v>477.4</v>
       </c>
       <c r="F12" s="5">
-        <v>267.23405250653099</v>
+        <v>267.2</v>
       </c>
       <c r="G12" s="5">
-        <v>231.93857635945901</v>
+        <v>231.9</v>
       </c>
       <c r="H12" s="5">
-        <v>257.66856468390898</v>
+        <v>257.7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -796,19 +789,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="5">
-        <v>235.87627019343799</v>
+        <v>235.9</v>
       </c>
       <c r="E13" s="5">
-        <v>301.58202337343499</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="F13" s="5">
-        <v>162.165065588332</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="G13" s="5">
-        <v>155.05293867230799</v>
+        <v>155.1</v>
       </c>
       <c r="H13" s="5">
-        <v>191.655473477155</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -818,19 +811,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="5">
-        <v>1207.2249730364999</v>
+        <v>1207.2</v>
       </c>
       <c r="E14" s="5">
-        <v>199.33371562160801</v>
+        <v>199.3</v>
       </c>
       <c r="F14" s="5">
-        <v>16.996624188143599</v>
+        <v>17</v>
       </c>
       <c r="G14" s="5">
-        <v>48.895892777919599</v>
+        <v>48.9</v>
       </c>
       <c r="H14" s="5">
-        <v>1925.0234616150599</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -840,19 +833,19 @@
         <v>6</v>
       </c>
       <c r="D15" s="5">
-        <v>1463.31863536318</v>
+        <v>1463.3</v>
       </c>
       <c r="E15" s="5">
-        <v>225.31004337447899</v>
+        <v>225.3</v>
       </c>
       <c r="F15" s="5">
-        <v>22.3616906206537</v>
+        <v>22.4</v>
       </c>
       <c r="G15" s="5">
-        <v>52.253269547466701</v>
+        <v>52.3</v>
       </c>
       <c r="H15" s="5">
-        <v>1083.7586950698801</v>
+        <v>1083.8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1816,23 +1809,23 @@
       </c>
       <c r="D60" s="3">
         <f>($D$10*D12+$D$18*D20+$D$2*D4+$D$50*D52+$D$26*D28+$D$34*D36+$D$42*D44)/D58</f>
-        <v>449.03712625115105</v>
+        <v>449.04454732382817</v>
       </c>
       <c r="E60" s="3">
         <f>($E$10*E12+$E$18*E20+$E$2*E4+$E$50*E52+$E$26*E28+$E$34*E36+$E$42*E44)/$E$58</f>
-        <v>461.48031142593635</v>
+        <v>461.46698719466445</v>
       </c>
       <c r="F60" s="3">
         <f>($F$10*F12+$F$18*F20+$F$2*F4+$F$50*F52+$F$26*F28+$F$34*F36+$F$42*F44)/$F$58</f>
-        <v>271.78841987327786</v>
+        <v>271.76884379464411</v>
       </c>
       <c r="G60" s="3">
         <f>($G$10*G12+$G$18*G20+$G$2*G4+$G$50*G52+$G$26*G28+$G$34*G36+$G$42*G44)/$G$58</f>
-        <v>213.09716840879281</v>
+        <v>213.07466553244174</v>
       </c>
       <c r="H60" s="3">
         <f>($H$10*H12+$H$18*H20+$H$2*H4+$H$50*H52+$H$26*H28+$H$34*H36+$H$42*H44)/$H$58</f>
-        <v>198.04510560660694</v>
+        <v>198.06254837346233</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -1843,23 +1836,23 @@
       </c>
       <c r="D61" s="3">
         <f>($D$10*D13+$D$18*D21+$D$2*D5+$D$50*D53+$D$26*D29+$D$34*D37+$D$42*D45)/D58</f>
-        <v>342.27125867453151</v>
+        <v>342.28332467786811</v>
       </c>
       <c r="E61" s="3">
         <f>($E$10*E13+$E$18*E21+$E$2*E5+$E$50*E53+$E$26*E29+$E$34*E37+$E$42*E45)/$E$58</f>
-        <v>326.95028596904723</v>
+        <v>326.96220731087459</v>
       </c>
       <c r="F61" s="3">
         <f>($F$10*F13+$F$18*F21+$F$2*F5+$F$50*F53+$F$26*F29+$F$34*F37+$F$42*F45)/$F$58</f>
-        <v>183.02409957361411</v>
+        <v>183.04418264119133</v>
       </c>
       <c r="G61" s="3">
         <f>($G$10*G13+$G$18*G21+$G$2*G5+$G$50*G53+$G$26*G29+$G$34*G37+$G$42*G45)/$G$58</f>
-        <v>149.82663462456352</v>
+        <v>149.85408706571718</v>
       </c>
       <c r="H61" s="3">
         <f>($H$10*H13+$H$18*H21+$H$2*H5+$H$50*H53+$H$26*H29+$H$34*H37+$H$42*H45)/$H$58</f>
-        <v>149.21242809672808</v>
+        <v>149.23713488684331</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -1870,23 +1863,23 @@
       </c>
       <c r="D62" s="3">
         <f>($D$10*D14+$D$18*D22+$D$2*D6+$D$50*D54+$D$26*D30+$D$34*D38+$D$42*D46)/D58</f>
-        <v>1977.717119265769</v>
+        <v>1977.7044211116163</v>
       </c>
       <c r="E62" s="3">
         <f>($E$10*E14+$E$18*E22+$E$2*E6+$E$50*E54+$E$26*E30+$E$34*E38+$E$42*E46)/$E$58</f>
-        <v>188.59377234154604</v>
+        <v>188.57141356090074</v>
       </c>
       <c r="F62" s="3">
         <f>($F$10*F14+$F$18*F22+$F$2*F6+$F$50*F54+$F$26*F30+$F$34*F38+$F$42*F46)/$F$58</f>
-        <v>18.675002387592585</v>
+        <v>18.676943071703263</v>
       </c>
       <c r="G62" s="3">
         <f>($G$10*G14+$G$18*G22+$G$2*G6+$G$50*G54+$G$26*G30+$G$34*G38+$G$42*G46)/$G$58</f>
-        <v>44.304345664961978</v>
+        <v>44.306741544508874</v>
       </c>
       <c r="H62" s="3">
         <f>($H$10*H14+$H$18*H22+$H$2*H6+$H$50*H54+$H$26*H30+$H$34*H38+$H$42*H46)/$H$58</f>
-        <v>1223.3417234025317</v>
+        <v>1223.3287050673459</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -1897,27 +1890,107 @@
       </c>
       <c r="D63" s="3">
         <f>($D$10*D15+$D$18*D23+$D$2*D7+$D$50*D55+$D$26*D31+$D$34*D39+$D$42*D47)/D58</f>
-        <v>1582.8275872243071</v>
+        <v>1582.8181116159103</v>
       </c>
       <c r="E63" s="3">
         <f>($E$10*E15+$E$18*E23+$E$2*E7+$E$50*E55+$E$26*E31+$E$34*E39+$E$42*E47)/$E$58</f>
-        <v>234.75589927172018</v>
+        <v>234.74923892864467</v>
       </c>
       <c r="F63" s="3">
         <f>($F$10*F15+$F$18*F23+$F$2*F7+$F$50*F55+$F$26*F31+$F$34*F39+$F$42*F47)/$F$58</f>
-        <v>23.012461557872669</v>
+        <v>23.034484824260151</v>
       </c>
       <c r="G63" s="3">
         <f>($G$10*G15+$G$18*G23+$G$2*G7+$G$50*G55+$G$26*G31+$G$34*G39+$G$42*G47)/$G$58</f>
-        <v>49.165936645019727</v>
+        <v>49.193196075664147</v>
       </c>
       <c r="H63" s="3">
         <f>($H$10*H15+$H$18*H23+$H$2*H7+$H$50*H55+$H$26*H31+$H$34*H39+$H$42*H47)/$H$58</f>
-        <v>779.52882691483785</v>
+        <v>779.55174611386781</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:H4">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:H5">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:H6">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:H8">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D12:H12">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:H13">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:H14">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:H15">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -1927,7 +2000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:H13">
+  <conditionalFormatting sqref="D20:H20">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -1937,7 +2010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:H14">
+  <conditionalFormatting sqref="D21:H21">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -1947,7 +2020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:H15">
+  <conditionalFormatting sqref="D22:H22">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -1957,7 +2030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:H20">
+  <conditionalFormatting sqref="D23:H23">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -1967,47 +2040,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:H21">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:H22">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:H23">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:H4">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:H5">
+  <conditionalFormatting sqref="D28:H28">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:H29">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:H30">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:H31">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:H36">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:H37">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:H38">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:H39">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:H44">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:H45">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:H46">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:H47">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:H52">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2017,7 +2170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:H6">
+  <conditionalFormatting sqref="D53:H53">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2027,7 +2180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:H8">
+  <conditionalFormatting sqref="D54:H54">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2037,7 +2190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:H52">
+  <conditionalFormatting sqref="D55:H55">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2047,208 +2200,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:H53">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:H54">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:H55">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:H28">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:H29">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:H30">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:H31">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:H36">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:H37">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:H38">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:H39">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:H44">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:H45">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:H46">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:H47">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D58:H58">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:H61">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:H62">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:H63">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:H60">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:H61">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:H62">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:H63">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:H60">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58:H58">
-    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3457,6 +3450,56 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:H4">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:H5">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:H6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D10:H10">
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -3537,38 +3580,118 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:H3">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:H4">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:H5">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:H6">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="D24:H24">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H25">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:H26">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:H27">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:H31">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:H32">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:H33">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:H34">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:H38">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:H39">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:H40">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:H41">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3617,128 +3740,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:H24">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H25">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:H26">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:H27">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:H31">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:H32">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:H33">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:H34">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:H38">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:H39">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:H40">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:H41">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="D51:H51">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3779,16 +3782,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:H52">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:H51">
-    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5001,6 +4994,56 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:H4">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:H5">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:H6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D10:H10">
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -5081,38 +5124,118 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:H3">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:H4">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:H5">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:H6">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="D24:H24">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H25">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:H26">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:H27">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:H31">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:H32">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:H33">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:H34">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:H38">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:H39">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:H40">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:H41">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5161,128 +5284,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:H24">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H25">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:H26">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:H27">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:H31">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:H32">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:H33">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:H34">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:H38">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:H39">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:H40">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:H41">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="D51:H51">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5323,16 +5326,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:H52">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:H51">
-    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5350,7 +5343,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5398,7 +5391,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5421,7 +5414,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5442,7 +5435,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5463,7 +5456,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -5484,7 +5477,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5507,7 +5500,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -5528,7 +5521,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -5549,7 +5542,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -5570,7 +5563,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5593,7 +5586,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
@@ -5614,7 +5607,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -5635,7 +5628,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
@@ -5698,7 +5691,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5721,7 +5714,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -5742,7 +5735,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -5763,7 +5756,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5786,7 +5779,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
@@ -5807,7 +5800,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
@@ -5828,7 +5821,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5851,7 +5844,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -5872,7 +5865,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
@@ -5893,7 +5886,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5916,7 +5909,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
@@ -5937,7 +5930,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
@@ -6057,6 +6050,106 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C19:G19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:G23 C20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:G24 C21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:G25 C22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:G26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:G27">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G28">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:G29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:G30">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:G31">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
     <cfRule type="colorScale" priority="17">
       <colorScale>
@@ -6087,96 +6180,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:G23 C20">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G26">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:G29">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:G24 C21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:G27">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:G30">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:G25 C22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:G28">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:G31">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D20:G20">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -6204,16 +6207,6 @@
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:G19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
